--- a/backend/projects/project-a-123-sunset-blvd/data/11_CLIENT_BILLING/AR_Aging_Report.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/11_CLIENT_BILLING/AR_Aging_Report.xlsx
@@ -16,10 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
-    <numFmt numFmtId="166" formatCode="$#,##0.00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="DD/MM/YYYY"/>
+    <numFmt numFmtId="165" formatCode="$#,##0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -69,14 +68,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -442,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,22 +529,22 @@
           <t>INV-001</t>
         </is>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="7" t="n">
         <v>45519</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="8" t="n">
         <v>97500</v>
       </c>
-      <c r="E5" s="4" t="n">
+      <c r="E5" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="4" t="n">
+      <c r="F5" s="8" t="n">
         <v>97500</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="4" t="n">
+      <c r="H5" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -557,22 +559,22 @@
           <t>INV-002</t>
         </is>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="7" t="n">
         <v>45536</v>
       </c>
-      <c r="D6" s="4" t="n">
+      <c r="D6" s="8" t="n">
         <v>65000</v>
       </c>
-      <c r="E6" s="4" t="n">
+      <c r="E6" s="8" t="n">
         <v>65000</v>
       </c>
-      <c r="F6" s="4" t="n">
+      <c r="F6" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="4" t="n">
+      <c r="H6" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -587,22 +589,22 @@
           <t>INV-003</t>
         </is>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="7" t="n">
         <v>45463</v>
       </c>
-      <c r="D7" s="4" t="n">
+      <c r="D7" s="8" t="n">
         <v>32500</v>
       </c>
-      <c r="E7" s="4" t="n">
+      <c r="E7" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="4" t="n">
+      <c r="F7" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="4" t="n">
+      <c r="H7" s="8" t="n">
         <v>32500</v>
       </c>
     </row>
@@ -617,22 +619,22 @@
           <t>INV-004</t>
         </is>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="7" t="n">
         <v>45550</v>
       </c>
-      <c r="D8" s="4" t="n">
+      <c r="D8" s="8" t="n">
         <v>48750</v>
       </c>
-      <c r="E8" s="4" t="n">
+      <c r="E8" s="8" t="n">
         <v>48750</v>
       </c>
-      <c r="F8" s="4" t="n">
+      <c r="F8" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="4" t="n">
+      <c r="H8" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,23 +644,947 @@
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="D9" s="6">
-        <f>SUM(D5:D8)</f>
-        <v/>
-      </c>
-      <c r="E9" s="6">
-        <f>SUM(E5:E8)</f>
-        <v/>
-      </c>
-      <c r="F9" s="6">
-        <f>SUM(F5:F8)</f>
-        <v/>
-      </c>
-      <c r="G9" s="6">
-        <f>SUM(G5:G8)</f>
-        <v/>
-      </c>
-      <c r="H9" s="6">
+      <c r="D9" s="9">
+        <f>SUM(D5:D8)</f>
+        <v/>
+      </c>
+      <c r="E9" s="9">
+        <f>SUM(E5:E8)</f>
+        <v/>
+      </c>
+      <c r="F9" s="9">
+        <f>SUM(F5:F8)</f>
+        <v/>
+      </c>
+      <c r="G9" s="9">
+        <f>SUM(G5:G8)</f>
+        <v/>
+      </c>
+      <c r="H9" s="9">
+        <f>SUM(H5:H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Item 9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>13118</v>
+      </c>
+      <c r="C10" t="n">
+        <v>33474</v>
+      </c>
+      <c r="D10">
+        <f>SUM(D5:D8)</f>
+        <v/>
+      </c>
+      <c r="E10">
+        <f>SUM(E5:E8)</f>
+        <v/>
+      </c>
+      <c r="F10">
+        <f>SUM(F5:F8)</f>
+        <v/>
+      </c>
+      <c r="G10">
+        <f>SUM(G5:G8)</f>
+        <v/>
+      </c>
+      <c r="H10">
+        <f>SUM(H5:H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Item 10</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>19627</v>
+      </c>
+      <c r="C11" t="n">
+        <v>27034</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D5:D8)</f>
+        <v/>
+      </c>
+      <c r="E11">
+        <f>SUM(E5:E8)</f>
+        <v/>
+      </c>
+      <c r="F11">
+        <f>SUM(F5:F8)</f>
+        <v/>
+      </c>
+      <c r="G11">
+        <f>SUM(G5:G8)</f>
+        <v/>
+      </c>
+      <c r="H11">
+        <f>SUM(H5:H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>18616</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3365</v>
+      </c>
+      <c r="D12">
+        <f>SUM(D5:D8)</f>
+        <v/>
+      </c>
+      <c r="E12">
+        <f>SUM(E5:E8)</f>
+        <v/>
+      </c>
+      <c r="F12">
+        <f>SUM(F5:F8)</f>
+        <v/>
+      </c>
+      <c r="G12">
+        <f>SUM(G5:G8)</f>
+        <v/>
+      </c>
+      <c r="H12">
+        <f>SUM(H5:H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>48450</v>
+      </c>
+      <c r="C13" t="n">
+        <v>12854</v>
+      </c>
+      <c r="D13">
+        <f>SUM(D5:D8)</f>
+        <v/>
+      </c>
+      <c r="E13">
+        <f>SUM(E5:E8)</f>
+        <v/>
+      </c>
+      <c r="F13">
+        <f>SUM(F5:F8)</f>
+        <v/>
+      </c>
+      <c r="G13">
+        <f>SUM(G5:G8)</f>
+        <v/>
+      </c>
+      <c r="H13">
+        <f>SUM(H5:H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>19037</v>
+      </c>
+      <c r="C14" t="n">
+        <v>25372</v>
+      </c>
+      <c r="D14">
+        <f>SUM(D5:D8)</f>
+        <v/>
+      </c>
+      <c r="E14">
+        <f>SUM(E5:E8)</f>
+        <v/>
+      </c>
+      <c r="F14">
+        <f>SUM(F5:F8)</f>
+        <v/>
+      </c>
+      <c r="G14">
+        <f>SUM(G5:G8)</f>
+        <v/>
+      </c>
+      <c r="H14">
+        <f>SUM(H5:H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>41744</v>
+      </c>
+      <c r="C15" t="n">
+        <v>22655</v>
+      </c>
+      <c r="D15">
+        <f>SUM(D5:D8)</f>
+        <v/>
+      </c>
+      <c r="E15">
+        <f>SUM(E5:E8)</f>
+        <v/>
+      </c>
+      <c r="F15">
+        <f>SUM(F5:F8)</f>
+        <v/>
+      </c>
+      <c r="G15">
+        <f>SUM(G5:G8)</f>
+        <v/>
+      </c>
+      <c r="H15">
+        <f>SUM(H5:H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>15756</v>
+      </c>
+      <c r="C16" t="n">
+        <v>13268</v>
+      </c>
+      <c r="D16">
+        <f>SUM(D5:D8)</f>
+        <v/>
+      </c>
+      <c r="E16">
+        <f>SUM(E5:E8)</f>
+        <v/>
+      </c>
+      <c r="F16">
+        <f>SUM(F5:F8)</f>
+        <v/>
+      </c>
+      <c r="G16">
+        <f>SUM(G5:G8)</f>
+        <v/>
+      </c>
+      <c r="H16">
+        <f>SUM(H5:H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>8422</v>
+      </c>
+      <c r="C17" t="n">
+        <v>5627</v>
+      </c>
+      <c r="D17">
+        <f>SUM(D5:D8)</f>
+        <v/>
+      </c>
+      <c r="E17">
+        <f>SUM(E5:E8)</f>
+        <v/>
+      </c>
+      <c r="F17">
+        <f>SUM(F5:F8)</f>
+        <v/>
+      </c>
+      <c r="G17">
+        <f>SUM(G5:G8)</f>
+        <v/>
+      </c>
+      <c r="H17">
+        <f>SUM(H5:H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>31567</v>
+      </c>
+      <c r="C18" t="n">
+        <v>23442</v>
+      </c>
+      <c r="D18">
+        <f>SUM(D5:D8)</f>
+        <v/>
+      </c>
+      <c r="E18">
+        <f>SUM(E5:E8)</f>
+        <v/>
+      </c>
+      <c r="F18">
+        <f>SUM(F5:F8)</f>
+        <v/>
+      </c>
+      <c r="G18">
+        <f>SUM(G5:G8)</f>
+        <v/>
+      </c>
+      <c r="H18">
+        <f>SUM(H5:H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8621</v>
+      </c>
+      <c r="C19" t="n">
+        <v>39088</v>
+      </c>
+      <c r="D19">
+        <f>SUM(D5:D8)</f>
+        <v/>
+      </c>
+      <c r="E19">
+        <f>SUM(E5:E8)</f>
+        <v/>
+      </c>
+      <c r="F19">
+        <f>SUM(F5:F8)</f>
+        <v/>
+      </c>
+      <c r="G19">
+        <f>SUM(G5:G8)</f>
+        <v/>
+      </c>
+      <c r="H19">
+        <f>SUM(H5:H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>14435</v>
+      </c>
+      <c r="C20" t="n">
+        <v>42121</v>
+      </c>
+      <c r="D20">
+        <f>SUM(D5:D8)</f>
+        <v/>
+      </c>
+      <c r="E20">
+        <f>SUM(E5:E8)</f>
+        <v/>
+      </c>
+      <c r="F20">
+        <f>SUM(F5:F8)</f>
+        <v/>
+      </c>
+      <c r="G20">
+        <f>SUM(G5:G8)</f>
+        <v/>
+      </c>
+      <c r="H20">
+        <f>SUM(H5:H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8414</v>
+      </c>
+      <c r="C21" t="n">
+        <v>11093</v>
+      </c>
+      <c r="D21">
+        <f>SUM(D5:D8)</f>
+        <v/>
+      </c>
+      <c r="E21">
+        <f>SUM(E5:E8)</f>
+        <v/>
+      </c>
+      <c r="F21">
+        <f>SUM(F5:F8)</f>
+        <v/>
+      </c>
+      <c r="G21">
+        <f>SUM(G5:G8)</f>
+        <v/>
+      </c>
+      <c r="H21">
+        <f>SUM(H5:H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>41163</v>
+      </c>
+      <c r="C22" t="n">
+        <v>40499</v>
+      </c>
+      <c r="D22">
+        <f>SUM(D5:D8)</f>
+        <v/>
+      </c>
+      <c r="E22">
+        <f>SUM(E5:E8)</f>
+        <v/>
+      </c>
+      <c r="F22">
+        <f>SUM(F5:F8)</f>
+        <v/>
+      </c>
+      <c r="G22">
+        <f>SUM(G5:G8)</f>
+        <v/>
+      </c>
+      <c r="H22">
+        <f>SUM(H5:H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>15593</v>
+      </c>
+      <c r="C23" t="n">
+        <v>46442</v>
+      </c>
+      <c r="D23">
+        <f>SUM(D5:D8)</f>
+        <v/>
+      </c>
+      <c r="E23">
+        <f>SUM(E5:E8)</f>
+        <v/>
+      </c>
+      <c r="F23">
+        <f>SUM(F5:F8)</f>
+        <v/>
+      </c>
+      <c r="G23">
+        <f>SUM(G5:G8)</f>
+        <v/>
+      </c>
+      <c r="H23">
+        <f>SUM(H5:H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>34411</v>
+      </c>
+      <c r="C24" t="n">
+        <v>39711</v>
+      </c>
+      <c r="D24">
+        <f>SUM(D5:D8)</f>
+        <v/>
+      </c>
+      <c r="E24">
+        <f>SUM(E5:E8)</f>
+        <v/>
+      </c>
+      <c r="F24">
+        <f>SUM(F5:F8)</f>
+        <v/>
+      </c>
+      <c r="G24">
+        <f>SUM(G5:G8)</f>
+        <v/>
+      </c>
+      <c r="H24">
+        <f>SUM(H5:H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>42697</v>
+      </c>
+      <c r="C25" t="n">
+        <v>24261</v>
+      </c>
+      <c r="D25">
+        <f>SUM(D5:D8)</f>
+        <v/>
+      </c>
+      <c r="E25">
+        <f>SUM(E5:E8)</f>
+        <v/>
+      </c>
+      <c r="F25">
+        <f>SUM(F5:F8)</f>
+        <v/>
+      </c>
+      <c r="G25">
+        <f>SUM(G5:G8)</f>
+        <v/>
+      </c>
+      <c r="H25">
+        <f>SUM(H5:H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>29749</v>
+      </c>
+      <c r="C26" t="n">
+        <v>16668</v>
+      </c>
+      <c r="D26">
+        <f>SUM(D5:D8)</f>
+        <v/>
+      </c>
+      <c r="E26">
+        <f>SUM(E5:E8)</f>
+        <v/>
+      </c>
+      <c r="F26">
+        <f>SUM(F5:F8)</f>
+        <v/>
+      </c>
+      <c r="G26">
+        <f>SUM(G5:G8)</f>
+        <v/>
+      </c>
+      <c r="H26">
+        <f>SUM(H5:H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>18449</v>
+      </c>
+      <c r="C27" t="n">
+        <v>43009</v>
+      </c>
+      <c r="D27">
+        <f>SUM(D5:D8)</f>
+        <v/>
+      </c>
+      <c r="E27">
+        <f>SUM(E5:E8)</f>
+        <v/>
+      </c>
+      <c r="F27">
+        <f>SUM(F5:F8)</f>
+        <v/>
+      </c>
+      <c r="G27">
+        <f>SUM(G5:G8)</f>
+        <v/>
+      </c>
+      <c r="H27">
+        <f>SUM(H5:H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>41840</v>
+      </c>
+      <c r="C28" t="n">
+        <v>22084</v>
+      </c>
+      <c r="D28">
+        <f>SUM(D5:D8)</f>
+        <v/>
+      </c>
+      <c r="E28">
+        <f>SUM(E5:E8)</f>
+        <v/>
+      </c>
+      <c r="F28">
+        <f>SUM(F5:F8)</f>
+        <v/>
+      </c>
+      <c r="G28">
+        <f>SUM(G5:G8)</f>
+        <v/>
+      </c>
+      <c r="H28">
+        <f>SUM(H5:H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>41315</v>
+      </c>
+      <c r="C29" t="n">
+        <v>36432</v>
+      </c>
+      <c r="D29">
+        <f>SUM(D5:D8)</f>
+        <v/>
+      </c>
+      <c r="E29">
+        <f>SUM(E5:E8)</f>
+        <v/>
+      </c>
+      <c r="F29">
+        <f>SUM(F5:F8)</f>
+        <v/>
+      </c>
+      <c r="G29">
+        <f>SUM(G5:G8)</f>
+        <v/>
+      </c>
+      <c r="H29">
+        <f>SUM(H5:H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>2421</v>
+      </c>
+      <c r="C30" t="n">
+        <v>6867</v>
+      </c>
+      <c r="D30">
+        <f>SUM(D5:D8)</f>
+        <v/>
+      </c>
+      <c r="E30">
+        <f>SUM(E5:E8)</f>
+        <v/>
+      </c>
+      <c r="F30">
+        <f>SUM(F5:F8)</f>
+        <v/>
+      </c>
+      <c r="G30">
+        <f>SUM(G5:G8)</f>
+        <v/>
+      </c>
+      <c r="H30">
+        <f>SUM(H5:H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>9955</v>
+      </c>
+      <c r="C31" t="n">
+        <v>37911</v>
+      </c>
+      <c r="D31">
+        <f>SUM(D5:D8)</f>
+        <v/>
+      </c>
+      <c r="E31">
+        <f>SUM(E5:E8)</f>
+        <v/>
+      </c>
+      <c r="F31">
+        <f>SUM(F5:F8)</f>
+        <v/>
+      </c>
+      <c r="G31">
+        <f>SUM(G5:G8)</f>
+        <v/>
+      </c>
+      <c r="H31">
+        <f>SUM(H5:H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>42501</v>
+      </c>
+      <c r="C32" t="n">
+        <v>48864</v>
+      </c>
+      <c r="D32">
+        <f>SUM(D5:D8)</f>
+        <v/>
+      </c>
+      <c r="E32">
+        <f>SUM(E5:E8)</f>
+        <v/>
+      </c>
+      <c r="F32">
+        <f>SUM(F5:F8)</f>
+        <v/>
+      </c>
+      <c r="G32">
+        <f>SUM(G5:G8)</f>
+        <v/>
+      </c>
+      <c r="H32">
+        <f>SUM(H5:H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>7787</v>
+      </c>
+      <c r="C33" t="n">
+        <v>30254</v>
+      </c>
+      <c r="D33">
+        <f>SUM(D5:D8)</f>
+        <v/>
+      </c>
+      <c r="E33">
+        <f>SUM(E5:E8)</f>
+        <v/>
+      </c>
+      <c r="F33">
+        <f>SUM(F5:F8)</f>
+        <v/>
+      </c>
+      <c r="G33">
+        <f>SUM(G5:G8)</f>
+        <v/>
+      </c>
+      <c r="H33">
+        <f>SUM(H5:H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>32562</v>
+      </c>
+      <c r="C34" t="n">
+        <v>39903</v>
+      </c>
+      <c r="D34">
+        <f>SUM(D5:D8)</f>
+        <v/>
+      </c>
+      <c r="E34">
+        <f>SUM(E5:E8)</f>
+        <v/>
+      </c>
+      <c r="F34">
+        <f>SUM(F5:F8)</f>
+        <v/>
+      </c>
+      <c r="G34">
+        <f>SUM(G5:G8)</f>
+        <v/>
+      </c>
+      <c r="H34">
+        <f>SUM(H5:H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>28327</v>
+      </c>
+      <c r="C35" t="n">
+        <v>21678</v>
+      </c>
+      <c r="D35">
+        <f>SUM(D5:D8)</f>
+        <v/>
+      </c>
+      <c r="E35">
+        <f>SUM(E5:E8)</f>
+        <v/>
+      </c>
+      <c r="F35">
+        <f>SUM(F5:F8)</f>
+        <v/>
+      </c>
+      <c r="G35">
+        <f>SUM(G5:G8)</f>
+        <v/>
+      </c>
+      <c r="H35">
+        <f>SUM(H5:H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>38367</v>
+      </c>
+      <c r="C36" t="n">
+        <v>6433</v>
+      </c>
+      <c r="D36">
+        <f>SUM(D5:D8)</f>
+        <v/>
+      </c>
+      <c r="E36">
+        <f>SUM(E5:E8)</f>
+        <v/>
+      </c>
+      <c r="F36">
+        <f>SUM(F5:F8)</f>
+        <v/>
+      </c>
+      <c r="G36">
+        <f>SUM(G5:G8)</f>
+        <v/>
+      </c>
+      <c r="H36">
+        <f>SUM(H5:H8)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>33372</v>
+      </c>
+      <c r="C37" t="n">
+        <v>23066</v>
+      </c>
+      <c r="D37">
+        <f>SUM(D5:D8)</f>
+        <v/>
+      </c>
+      <c r="E37">
+        <f>SUM(E5:E8)</f>
+        <v/>
+      </c>
+      <c r="F37">
+        <f>SUM(F5:F8)</f>
+        <v/>
+      </c>
+      <c r="G37">
+        <f>SUM(G5:G8)</f>
+        <v/>
+      </c>
+      <c r="H37">
         <f>SUM(H5:H8)</f>
         <v/>
       </c>
